--- a/data-raw/dados_rj/validacao/escape_calibre_complementar.xlsx
+++ b/data-raw/dados_rj/validacao/escape_calibre_complementar.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D93"/>
+  <dimension ref="A1:D74"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -382,657 +382,657 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>7,65 mm</t>
+          <t>25903</t>
         </is>
       </c>
       <c r="D2">
-        <v>462</v>
+        <v>380</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>36/63,5 knock</t>
+          <t>20</t>
         </is>
       </c>
       <c r="D3">
-        <v>390</v>
+        <v>283</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>25903</t>
+          <t>.320</t>
         </is>
       </c>
       <c r="D4">
-        <v>380</v>
+        <v>196</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>6,35 mm</t>
+          <t>16</t>
         </is>
       </c>
       <c r="D5">
-        <v>285</v>
+        <v>132</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>12.0</t>
+          <t>24</t>
         </is>
       </c>
       <c r="D6">
-        <v>243</v>
+        <v>113</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>.38 spl+p+,</t>
+          <t>.308</t>
         </is>
       </c>
       <c r="D7">
-        <v>208</v>
+        <v>39</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>.38 short</t>
+          <t>.45 ar</t>
         </is>
       </c>
       <c r="D8">
-        <v>173</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>28.0</t>
+          <t>.38 super auto</t>
         </is>
       </c>
       <c r="D9">
-        <v>162</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>.40 auto</t>
+          <t>.40 s&amp;w magnum</t>
         </is>
       </c>
       <c r="D10">
-        <v>109</v>
+        <v>18</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>36.0</t>
+          <t>5,55 mm velo dog</t>
         </is>
       </c>
       <c r="D11">
-        <v>106</v>
+        <v>15</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>.44-40 winchester</t>
+          <t>7 mm</t>
         </is>
       </c>
       <c r="D12">
-        <v>100</v>
+        <v>14</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>7 mm mauser</t>
+          <t>7,65 mm mauser (7,65 x 53 mm)</t>
         </is>
       </c>
       <c r="D13">
-        <v>78</v>
+        <v>11</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>.38 swl</t>
+          <t>9 mm browning long</t>
         </is>
       </c>
       <c r="D14">
-        <v>75</v>
+        <v>10</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>22.0</t>
+          <t>7,62 mm mauser (7,62 x 25 mm)</t>
         </is>
       </c>
       <c r="D15">
-        <v>58</v>
+        <v>9</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>.38 s&amp;w (9x20 mm)</t>
+          <t>.30 luger</t>
         </is>
       </c>
       <c r="D16">
-        <v>52</v>
+        <v>8</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>.44 magnum</t>
+          <t>.44 s&amp;w special</t>
         </is>
       </c>
       <c r="D17">
-        <v>48</v>
+        <v>8</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>9 mm luger +p+</t>
+          <t>10 mm auto</t>
         </is>
       </c>
       <c r="D18">
-        <v>44</v>
+        <v>8</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>20.0</t>
+          <t>.38-40 winchester (.38 wcf)</t>
         </is>
       </c>
       <c r="D19">
-        <v>36</v>
+        <v>7</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>.45 ar</t>
+          <t>.44 rem magnum</t>
         </is>
       </c>
       <c r="D20">
-        <v>21</v>
+        <v>7</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>.38 super auto</t>
+          <t>.222 remington</t>
         </is>
       </c>
       <c r="D21">
-        <v>18</v>
+        <v>6</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>.40 s&amp;w magnum</t>
+          <t>.38 super (9 x 23 mm)</t>
         </is>
       </c>
       <c r="D22">
-        <v>18</v>
+        <v>6</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>5,55 mm velo dog</t>
+          <t>36 x 63,5 sg4</t>
         </is>
       </c>
       <c r="D23">
-        <v>15</v>
+        <v>6</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>7 mm</t>
+          <t>.22 lr-sv</t>
         </is>
       </c>
       <c r="D24">
-        <v>14</v>
+        <v>5</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>16.0</t>
+          <t>.375</t>
         </is>
       </c>
       <c r="D25">
-        <v>12</v>
+        <v>5</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>24.0</t>
+          <t>.383 s&amp;w (9x20)</t>
         </is>
       </c>
       <c r="D26">
-        <v>12</v>
+        <v>5</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>7,62 x 63 mm</t>
+          <t>.50 (12,7 x 76mm)</t>
         </is>
       </c>
       <c r="D27">
-        <v>12</v>
+        <v>5</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>7,65 mm mauser (7,65 x 53 mm)</t>
+          <t>5,5 mm bb</t>
         </is>
       </c>
       <c r="D28">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>9 mm browning long</t>
+          <t>24 x 63,5 mm</t>
         </is>
       </c>
       <c r="D29">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>7,62 mm mauser (7,62 x 25 mm)</t>
+          <t>6 mm bb</t>
         </is>
       </c>
       <c r="D30">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>.30 luger</t>
+          <t>9 mm flobert</t>
         </is>
       </c>
       <c r="D31">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>.44 s&amp;w special</t>
+          <t>.338</t>
         </is>
       </c>
       <c r="D32">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>10 mm auto</t>
+          <t>5,5 mm pellet</t>
         </is>
       </c>
       <c r="D33">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>.38 super (9 x 23 mm)</t>
+          <t>6 mm flobert</t>
         </is>
       </c>
       <c r="D34">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>.38-40 winchester (.38 wcf)</t>
+          <t>7,5 mm</t>
         </is>
       </c>
       <c r="D35">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>.44 rem magnum</t>
+          <t>7,92 x 57 mm</t>
         </is>
       </c>
       <c r="D36">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>.222 remington</t>
+          <t>9 mm longo (9x23 mm)</t>
         </is>
       </c>
       <c r="D37">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>36 x 63,5 sg4</t>
+          <t>9 mm pab-9(9x39)</t>
         </is>
       </c>
       <c r="D38">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>.22 lr-sv</t>
+          <t>.22-250 remington</t>
         </is>
       </c>
       <c r="D39">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>.357 sig</t>
+          <t>.303 british</t>
         </is>
       </c>
       <c r="D40">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>.375</t>
+          <t>.356</t>
         </is>
       </c>
       <c r="D41">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>.383 s&amp;w (9x20)</t>
+          <t>16 x 70 bagos</t>
         </is>
       </c>
       <c r="D42">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>.50 (12,7 x 76mm)</t>
+          <t>17</t>
         </is>
       </c>
       <c r="D43">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>5,5 mm bb</t>
+          <t>20 x 70 mm</t>
         </is>
       </c>
       <c r="D44">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>24 x 63,5 mm</t>
+          <t>26</t>
         </is>
       </c>
       <c r="D45">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>6 mm bb</t>
+          <t>7,62 x 45 mm m1952</t>
         </is>
       </c>
       <c r="D46">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>9 mm flobert</t>
+          <t>8 mm mauser (8 x 57 mm)</t>
         </is>
       </c>
       <c r="D47">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>.338</t>
+          <t>.22-250 remigton</t>
         </is>
       </c>
       <c r="D48">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>5,5 mm pellet</t>
+          <t>.243 winchester</t>
         </is>
       </c>
       <c r="D49">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>6 mm flobert</t>
+          <t>.270 win vulkan</t>
         </is>
       </c>
       <c r="D50">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>7,5 mm</t>
+          <t>.270 winchester</t>
         </is>
       </c>
       <c r="D51">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>7,92 x 57 mm</t>
+          <t>.300 blackout</t>
         </is>
       </c>
       <c r="D52">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>9 mm longo (9x23 mm)</t>
+          <t>.300 win magnun</t>
         </is>
       </c>
       <c r="D53">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>9 mm pab-9(9x39)</t>
+          <t>.41 magnum</t>
         </is>
       </c>
       <c r="D54">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>.22-250 remington</t>
+          <t>.45-70 government</t>
         </is>
       </c>
       <c r="D55">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>.303 british</t>
+          <t>.454 casull</t>
         </is>
       </c>
       <c r="D56">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>.356</t>
+          <t>.50 action express (50ae)</t>
         </is>
       </c>
       <c r="D57">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>.41 ae (action express)</t>
+          <t>.50 ae (12,69 x 32,61 mm)</t>
         </is>
       </c>
       <c r="D58">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>.410 x 76 (36)</t>
+          <t>.500 s&amp;w magnum</t>
         </is>
       </c>
       <c r="D59">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>16 x 70 bagos</t>
+          <t>11</t>
         </is>
       </c>
       <c r="D60">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>12 (3 polegadas) 76,2 mm</t>
         </is>
       </c>
       <c r="D61">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>20 x 70 mm</t>
+          <t>25903.0</t>
         </is>
       </c>
       <c r="D62">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>5,45 mm m74 (5,45x39)</t>
         </is>
       </c>
       <c r="D63">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>7,62 x 45 mm m1952</t>
+          <t>5,45 x 39,5 mm</t>
         </is>
       </c>
       <c r="D64">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>7,92mm mauser(7,92x57)</t>
+          <t>7,5 x 54 mm (m1929)</t>
         </is>
       </c>
       <c r="D65">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>8 mm mauser (8 x 57 mm)</t>
+          <t>7,5 x 55 mm swiss</t>
         </is>
       </c>
       <c r="D66">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>.22-250 remigton</t>
+          <t>7,62 x 33 mm (.30 - m1)</t>
         </is>
       </c>
       <c r="D67">
@@ -1042,7 +1042,7 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>.243 winchester</t>
+          <t>7,62mm mosin-nagant (7,62x54)</t>
         </is>
       </c>
       <c r="D68">
@@ -1052,7 +1052,7 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>.270 win vulkan</t>
+          <t>7,65 x 19,5 mm</t>
         </is>
       </c>
       <c r="D69">
@@ -1062,7 +1062,7 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>.270 winchester</t>
+          <t>8 lebel (8x50)</t>
         </is>
       </c>
       <c r="D70">
@@ -1072,7 +1072,7 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>.300 blackout</t>
+          <t>9 mm imi (9x21mm)</t>
         </is>
       </c>
       <c r="D71">
@@ -1082,7 +1082,7 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>.300 win magnun</t>
+          <t>9 mm makarov(9x18)</t>
         </is>
       </c>
       <c r="D72">
@@ -1092,7 +1092,7 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>.41 magnum</t>
+          <t>9 mm sp-6(9x39)</t>
         </is>
       </c>
       <c r="D73">
@@ -1102,200 +1102,10 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>.45-70 government</t>
+          <t>9 x 23 mm</t>
         </is>
       </c>
       <c r="D74">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" t="inlineStr">
-        <is>
-          <t>.454 casull</t>
-        </is>
-      </c>
-      <c r="D75">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" t="inlineStr">
-        <is>
-          <t>.50 action express (50ae)</t>
-        </is>
-      </c>
-      <c r="D76">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" t="inlineStr">
-        <is>
-          <t>.50 ae (12,69 x 32,61 mm)</t>
-        </is>
-      </c>
-      <c r="D77">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" t="inlineStr">
-        <is>
-          <t>.500 s&amp;w magnum</t>
-        </is>
-      </c>
-      <c r="D78">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" t="inlineStr">
-        <is>
-          <t>11</t>
-        </is>
-      </c>
-      <c r="D79">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" t="inlineStr">
-        <is>
-          <t>12 (3 polegadas) 76,2 mm</t>
-        </is>
-      </c>
-      <c r="D80">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="81">
-      <c r="A81" t="inlineStr">
-        <is>
-          <t>25903.0</t>
-        </is>
-      </c>
-      <c r="D81">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="82">
-      <c r="A82" t="inlineStr">
-        <is>
-          <t>5,45 mm m74 (5,45x39)</t>
-        </is>
-      </c>
-      <c r="D82">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="83">
-      <c r="A83" t="inlineStr">
-        <is>
-          <t>5,45 x 39,5 mm</t>
-        </is>
-      </c>
-      <c r="D83">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="84">
-      <c r="A84" t="inlineStr">
-        <is>
-          <t>7,5 x 54 mm (m1929)</t>
-        </is>
-      </c>
-      <c r="D84">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" t="inlineStr">
-        <is>
-          <t>7,5 x 55 mm swiss</t>
-        </is>
-      </c>
-      <c r="D85">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86" t="inlineStr">
-        <is>
-          <t>7,62 x 33 mm (.30 - m1)</t>
-        </is>
-      </c>
-      <c r="D86">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="87">
-      <c r="A87" t="inlineStr">
-        <is>
-          <t>7,62mm mosin-nagant (7,62x54)</t>
-        </is>
-      </c>
-      <c r="D87">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="88">
-      <c r="A88" t="inlineStr">
-        <is>
-          <t>7,65 x 19,5 mm</t>
-        </is>
-      </c>
-      <c r="D88">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="89">
-      <c r="A89" t="inlineStr">
-        <is>
-          <t>8 lebel (8x50)</t>
-        </is>
-      </c>
-      <c r="D89">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="90">
-      <c r="A90" t="inlineStr">
-        <is>
-          <t>9 mm imi (9x21mm)</t>
-        </is>
-      </c>
-      <c r="D90">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="91">
-      <c r="A91" t="inlineStr">
-        <is>
-          <t>9 mm makarov(9x18)</t>
-        </is>
-      </c>
-      <c r="D91">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="92">
-      <c r="A92" t="inlineStr">
-        <is>
-          <t>9 mm sp-6(9x39)</t>
-        </is>
-      </c>
-      <c r="D92">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="93">
-      <c r="A93" t="inlineStr">
-        <is>
-          <t>9 x 23 mm</t>
-        </is>
-      </c>
-      <c r="D93">
         <v>1</v>
       </c>
     </row>

--- a/data-raw/dados_rj/validacao/escape_calibre_complementar.xlsx
+++ b/data-raw/dados_rj/validacao/escape_calibre_complementar.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D74"/>
+  <dimension ref="A1:D58"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -392,457 +392,462 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>.45 ar</t>
         </is>
       </c>
       <c r="D3">
-        <v>283</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>.320</t>
+          <t>.40 s&amp;w magnum</t>
         </is>
       </c>
       <c r="D4">
-        <v>196</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>5,55 mm velo dog</t>
         </is>
       </c>
       <c r="D5">
-        <v>132</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>7 mm</t>
         </is>
       </c>
       <c r="D6">
-        <v>113</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>.308</t>
+          <t>7,65 mm mauser (7,65 x 53 mm)</t>
         </is>
       </c>
       <c r="D7">
-        <v>39</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>.45 ar</t>
+          <t>.30 luger</t>
         </is>
       </c>
       <c r="D8">
-        <v>21</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>.38 super auto</t>
+          <t>.44 s&amp;w special</t>
         </is>
       </c>
       <c r="D9">
-        <v>18</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>.40 s&amp;w magnum</t>
+          <t>10 mm auto</t>
         </is>
       </c>
       <c r="D10">
-        <v>18</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>5,55 mm velo dog</t>
+          <t>.44 rem magnum</t>
         </is>
       </c>
       <c r="D11">
-        <v>15</v>
+        <v>7</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>7 mm</t>
+          <t>.222 remington</t>
         </is>
       </c>
       <c r="D12">
-        <v>14</v>
+        <v>6</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>7,65 mm mauser (7,65 x 53 mm)</t>
+          <t>36 x 63,5 sg4</t>
         </is>
       </c>
       <c r="D13">
-        <v>11</v>
+        <v>6</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>9 mm browning long</t>
+          <t>.22 lr-sv</t>
         </is>
       </c>
       <c r="D14">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>7,62 mm mauser (7,62 x 25 mm)</t>
+          <t>.375</t>
         </is>
       </c>
       <c r="D15">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>.30 luger</t>
+          <t>.383 s&amp;w (9x20)</t>
         </is>
       </c>
       <c r="D16">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>.44 s&amp;w special</t>
+          <t>.50 (12,7 x 76mm)</t>
         </is>
       </c>
       <c r="D17">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>10 mm auto</t>
+          <t>24 x 63,5 mm</t>
         </is>
       </c>
       <c r="D18">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>.38-40 winchester (.38 wcf)</t>
+          <t>6 mm bb</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>airsoft</t>
         </is>
       </c>
       <c r="D19">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>.44 rem magnum</t>
+          <t>9 mm flobert</t>
         </is>
       </c>
       <c r="D20">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>.222 remington</t>
+          <t>.338</t>
         </is>
       </c>
       <c r="D21">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>.38 super (9 x 23 mm)</t>
+          <t>6 mm flobert</t>
         </is>
       </c>
       <c r="D22">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>36 x 63,5 sg4</t>
+          <t>7,5 mm</t>
         </is>
       </c>
       <c r="D23">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>.22 lr-sv</t>
+          <t>7,92 x 57 mm</t>
         </is>
       </c>
       <c r="D24">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>.375</t>
+          <t>9 mm longo (9x23 mm)</t>
         </is>
       </c>
       <c r="D25">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>.383 s&amp;w (9x20)</t>
+          <t>9 mm pab-9(9x39)</t>
         </is>
       </c>
       <c r="D26">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>.50 (12,7 x 76mm)</t>
+          <t>.22-250 remington</t>
         </is>
       </c>
       <c r="D27">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>5,5 mm bb</t>
+          <t>.303 british</t>
         </is>
       </c>
       <c r="D28">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>24 x 63,5 mm</t>
+          <t>.356</t>
         </is>
       </c>
       <c r="D29">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>6 mm bb</t>
+          <t>16 x 70 bagos</t>
         </is>
       </c>
       <c r="D30">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>9 mm flobert</t>
+          <t>17</t>
         </is>
       </c>
       <c r="D31">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>.338</t>
+          <t>20 x 70 mm</t>
         </is>
       </c>
       <c r="D32">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>5,5 mm pellet</t>
+          <t>26</t>
         </is>
       </c>
       <c r="D33">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>6 mm flobert</t>
+          <t>7,62 x 45 mm m1952</t>
         </is>
       </c>
       <c r="D34">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>7,5 mm</t>
+          <t>.22-250 remigton</t>
         </is>
       </c>
       <c r="D35">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>7,92 x 57 mm</t>
+          <t>.243 winchester</t>
         </is>
       </c>
       <c r="D36">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>9 mm longo (9x23 mm)</t>
+          <t>.270 win vulkan</t>
         </is>
       </c>
       <c r="D37">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>9 mm pab-9(9x39)</t>
+          <t>.270 winchester</t>
         </is>
       </c>
       <c r="D38">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>.22-250 remington</t>
+          <t>.300 blackout</t>
         </is>
       </c>
       <c r="D39">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>.303 british</t>
+          <t>.300 win magnun</t>
         </is>
       </c>
       <c r="D40">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>.356</t>
+          <t>.41 magnum</t>
         </is>
       </c>
       <c r="D41">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>16 x 70 bagos</t>
+          <t>.45-70 government</t>
         </is>
       </c>
       <c r="D42">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>.454 casull</t>
         </is>
       </c>
       <c r="D43">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>20 x 70 mm</t>
+          <t>.50 action express (50ae)</t>
         </is>
       </c>
       <c r="D44">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>.50 ae (12,69 x 32,61 mm)</t>
         </is>
       </c>
       <c r="D45">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>7,62 x 45 mm m1952</t>
+          <t>.500 s&amp;w magnum</t>
         </is>
       </c>
       <c r="D46">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>8 mm mauser (8 x 57 mm)</t>
+          <t>11</t>
         </is>
       </c>
       <c r="D47">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>.22-250 remigton</t>
+          <t>12 (3 polegadas) 76,2 mm</t>
         </is>
       </c>
       <c r="D48">
@@ -852,7 +857,7 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>.243 winchester</t>
+          <t>25903.0</t>
         </is>
       </c>
       <c r="D49">
@@ -862,7 +867,7 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>.270 win vulkan</t>
+          <t>5,45 x 39,5 mm</t>
         </is>
       </c>
       <c r="D50">
@@ -872,7 +877,7 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>.270 winchester</t>
+          <t>7,5 x 54 mm (m1929)</t>
         </is>
       </c>
       <c r="D51">
@@ -882,7 +887,7 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>.300 blackout</t>
+          <t>7,5 x 55 mm swiss</t>
         </is>
       </c>
       <c r="D52">
@@ -892,7 +897,7 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>.300 win magnun</t>
+          <t>7,62 x 33 mm (.30 - m1)</t>
         </is>
       </c>
       <c r="D53">
@@ -902,7 +907,7 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>.41 magnum</t>
+          <t>7,65 x 19,5 mm</t>
         </is>
       </c>
       <c r="D54">
@@ -912,7 +917,7 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>.45-70 government</t>
+          <t>8 lebel (8x50)</t>
         </is>
       </c>
       <c r="D55">
@@ -922,7 +927,7 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>.454 casull</t>
+          <t>9 mm imi (9x21mm)</t>
         </is>
       </c>
       <c r="D56">
@@ -932,7 +937,7 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>.50 action express (50ae)</t>
+          <t>9 mm makarov(9x18)</t>
         </is>
       </c>
       <c r="D57">
@@ -942,170 +947,10 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>.50 ae (12,69 x 32,61 mm)</t>
+          <t>9 mm sp-6(9x39)</t>
         </is>
       </c>
       <c r="D58">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" t="inlineStr">
-        <is>
-          <t>.500 s&amp;w magnum</t>
-        </is>
-      </c>
-      <c r="D59">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" t="inlineStr">
-        <is>
-          <t>11</t>
-        </is>
-      </c>
-      <c r="D60">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" t="inlineStr">
-        <is>
-          <t>12 (3 polegadas) 76,2 mm</t>
-        </is>
-      </c>
-      <c r="D61">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" t="inlineStr">
-        <is>
-          <t>25903.0</t>
-        </is>
-      </c>
-      <c r="D62">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" t="inlineStr">
-        <is>
-          <t>5,45 mm m74 (5,45x39)</t>
-        </is>
-      </c>
-      <c r="D63">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" t="inlineStr">
-        <is>
-          <t>5,45 x 39,5 mm</t>
-        </is>
-      </c>
-      <c r="D64">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" t="inlineStr">
-        <is>
-          <t>7,5 x 54 mm (m1929)</t>
-        </is>
-      </c>
-      <c r="D65">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" t="inlineStr">
-        <is>
-          <t>7,5 x 55 mm swiss</t>
-        </is>
-      </c>
-      <c r="D66">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" t="inlineStr">
-        <is>
-          <t>7,62 x 33 mm (.30 - m1)</t>
-        </is>
-      </c>
-      <c r="D67">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" t="inlineStr">
-        <is>
-          <t>7,62mm mosin-nagant (7,62x54)</t>
-        </is>
-      </c>
-      <c r="D68">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" t="inlineStr">
-        <is>
-          <t>7,65 x 19,5 mm</t>
-        </is>
-      </c>
-      <c r="D69">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" t="inlineStr">
-        <is>
-          <t>8 lebel (8x50)</t>
-        </is>
-      </c>
-      <c r="D70">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" t="inlineStr">
-        <is>
-          <t>9 mm imi (9x21mm)</t>
-        </is>
-      </c>
-      <c r="D71">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" t="inlineStr">
-        <is>
-          <t>9 mm makarov(9x18)</t>
-        </is>
-      </c>
-      <c r="D72">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" t="inlineStr">
-        <is>
-          <t>9 mm sp-6(9x39)</t>
-        </is>
-      </c>
-      <c r="D73">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" t="inlineStr">
-        <is>
-          <t>9 x 23 mm</t>
-        </is>
-      </c>
-      <c r="D74">
         <v>1</v>
       </c>
     </row>
